--- a/branches/riziv/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/branches/riziv/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -137,19 +137,29 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record logical model</t>
-  </si>
-  <si>
-    <t>A structure collection of a patient's medication history.</t>
+    <t>[Logical Model] - Medication Record</t>
+  </si>
+  <si>
+    <t>A model for a structure collection of a patient's medication history.</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
+    <t>BeModelMedicationRecord.identifier</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>The business identifier(s) for the Medication Record</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.patient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -199,6 +209,9 @@
     <t>Detailed records</t>
   </si>
   <si>
+    <t>Detailed records - the most granular interactions</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
@@ -212,7 +225,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledOrder
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledAdministration
 </t>
   </si>
   <si>
@@ -405,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -672,7 +685,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>44</v>
@@ -747,7 +760,7 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>44</v>
@@ -772,10 +785,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -847,10 +860,10 @@
         <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -1193,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1264,7 +1277,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1287,13 +1300,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1344,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1364,7 +1377,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1387,13 +1400,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1444,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1464,7 +1477,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1487,13 +1500,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1544,7 +1557,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1564,7 +1577,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1587,13 +1600,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1644,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1664,7 +1677,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1687,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1744,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1759,11 +1772,111 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ13">
+  <autoFilter ref="A1:AJ14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1773,7 +1886,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
